--- a/data/minfin/22_questions.xlsx
+++ b/data/minfin/22_questions.xlsx
@@ -139,9 +139,6 @@
     <t>объем, государственный долг, субъектов, Российской Федерации, динамика</t>
   </si>
   <si>
-    <t>На первое января две тысячи семнадцатого года государственный долг субъектов Российской Федерации увеличился на одну целую пять десятых процента к уровню первого января две тысячи шестнадцатого года и составил два триллиона триста пятьдесят три миллиарда двести миллионов рублей</t>
-  </si>
-  <si>
     <t>На 1 января 2017 года государственный долг субъектов Российской Федерации составляет 
 2353,2 млрд. рублей, увеличившись на 1,5% к уровню 1 января 2016 года, или 33,8% от объема налоговых и неналоговых доходов бюджетов субъектов Российской Федерации
 В 54 субъектах Российской Федерации государственный долг составляет более 50% от объема налоговых и неналоговых доходов (без учета бюджетных кредитов – в 15 регионах). При этом в Республике Мордовия, Республике Хакасия и Костромской области государственный долг составляет 176,0%, 145,5% и 143,3% соответственно от объема налоговых и неналоговых доходов субъектов Российской Федерации (без учета бюджетных кредитов – в Республике Хакасия, Костромской области и Республике Мордовия государственный долг составляет 127,3%, 85,6% и 77,0% соответственно).
@@ -194,9 +191,6 @@
   </si>
   <si>
     <t>Основные, параметры, исполнения, консолидированных, бюджетов, субъектов, Российской Федерации, 2016</t>
-  </si>
-  <si>
-    <t>Консолидированный бюджет субъектов Российской Федерации в две тысячи шестнадцатом году исполнен по доходам на сто две целых пять десятых процента по расходам на девяносто четыре целых, четыре десятых процента</t>
   </si>
   <si>
     <t>В 2016 году доходы консолидированного бюджета субъектов РФ составили 9923,8 млрд. руб., что на 6,6% выше, чем в 2015 году. 
@@ -407,7 +401,162 @@
     <t>К налоговым доходам бюджетов субъектов Российской Федерации относятся региональные налоги и федеральные налоги и сборы</t>
   </si>
   <si>
-    <t>Федерации определены статьей 56 Бюджетного кодекса Российской Федерации. 
+    <t>Общий объем средств федерального бюджета, предусмотренных на реализацию госпрограммы «Социально-экономическое развитие Республики Крым и города Севастополя на период до две тысячи двадцатого года» в две тысячи пятнадцатом две тысячи двадцатом годах составляет семьсот тридцать восемь миллиардов сто миллионов рублей (в том числе в две тысячи семнадцатом году – сто шестьдесят четыре миллиарда восемьсот миллионов рублей)</t>
+  </si>
+  <si>
+    <t>Субъектам Российской Федерации предоставляются следующие межбюджетные трансферты: дотации на выравнивание бюджетной обеспеченности субъектов Российской Федерации; субсидии бюджетам субъектов Российской Федерации; субвенции бюджетам субъектов Российской Федерации;
+иные межбюджетные трансферты бюджетам субъектов Российской Федерации</t>
+  </si>
+  <si>
+    <t>Для каких целей создается Резервный фонд Правительства Российской Федерации?</t>
+  </si>
+  <si>
+    <t>Что включает в себя консолидированный бюджет субъекта Российской Федерации?</t>
+  </si>
+  <si>
+    <t>Включает, состоит, консолидированный бюджет субъекта, Российской Федерации, РФ</t>
+  </si>
+  <si>
+    <t>Консолидированный бюджет субъекта Российской Федерации включает бюджет субъекта Российской Федерации и свод бюджетов муниципальных образований, входящих в состав субъекта Российской Федерации (без учета межбюджетных трансфертов между этими бюджетами)</t>
+  </si>
+  <si>
+    <t>Бюджет субъекта Российской Федерации и свод бюджетов муниципальных образований, входящих в состав субъекта Российской Федерации (без учета межбюджетных трансфертов между этими бюджетами), образуют консолидированный бюджет субъекта Российской Федерации</t>
+  </si>
+  <si>
+    <t>Понятие межбюджетных трансфертов?</t>
+  </si>
+  <si>
+    <t>Межбюджетные трансферты, МБТ, понятие, определение, что это</t>
+  </si>
+  <si>
+    <t>Межбюджетные трансферты - средства, предоставляемые одним бюджетом бюджетной системы Российской Федерации другому бюджету бюджетной системы Российской Федерации</t>
+  </si>
+  <si>
+    <t>Как проводится работа по консолидации субсидий, предоставляемых бюджетам субъектов Российской Федерации из федерального бюджета?</t>
+  </si>
+  <si>
+    <t>В рамках государственной программы Российской Федерации «Развитие федеративных отношений и создание условий для эффективного и ответственного управления региональными и муниципальными финансами» стоит задача по уменьшению количества субсидий, предоставляемых субъектам Российской Федерации из федерального бюджета в результате их консолидации по принципу «одна государственная программа – одна субсидия». В случае невозможности соблюдения указанного принципа применяется подход «одна подпрограмма – одна субсидия».
+Стоит отметить, что процесс укрупнения субсидий происходит постепенно. В 2014 году были осуществлены первые шаги по укрупнению субсидий: предоставлялась субсидия на реализацию отдельных мероприятий государственной программы «Развитие здравоохранения».
+Осуществленные Минфином России меры по консолидации при подготовке федерального бюджета на 2017 год позволили существенно сократить количество субсидий: в Федеральном законе от 19.12.2016 № 415-ФЗ «О федеральном бюджете на 2017 год и на плановый период 2018 и 2019 годов» предусмотрено 65 субсидий, что на 30 субсидий или 31,6% меньше аналогичного показателя, предусмотренного Федеральным законом от 14.12.2016 № 359-ФЗ «О федеральном бюджете на 2016 год».
+Динамика предоставления субсидий бюджетам субъектов Российской Федерации из федерального бюджета в 2016-2019 годах показана на рисунке</t>
+  </si>
+  <si>
+    <t>Динамика предоставления субсидий бюджетам субъектов Российской Федерации из федерального бюджета в 2016-2019 годах</t>
+  </si>
+  <si>
+    <t>22.17.jpg</t>
+  </si>
+  <si>
+    <t>Проводится, работа, по консолидации, субсидий, предоставляемых, бюджетам субъектов, Российская Федерация, РФ, федеральный бюджет, ФБ</t>
+  </si>
+  <si>
+    <t>Что такое единая субвенция?</t>
+  </si>
+  <si>
+    <t>Единая субвенция, понятие, определение</t>
+  </si>
+  <si>
+    <t>Отдельные субвенции бюджетам субъектов Российской Федерации из федерального бюджета формируют единую субвенцию бюджетам субъектов Российской Федерации из федерального бюджета на осуществление переданных органам государственной власти субъектов полномочий, перечень которых утвержден распоряжением Правительства Российской Федерации</t>
+  </si>
+  <si>
+    <t>Субвенции бюджетам субъектов Российской Федерации из федерального бюджета – это межбюджетные трансферты, предоставляемые бюджетам субъектов Российской Федерации в целях финансового обеспечения расходных обязательств субъектов Российской Федерации и (или) муниципальных образований, возникающих при выполнении полномочий Российской Федерации, переданных для осуществления органам государственной власти субъектов Российской Федерации и (или) органам местного самоуправления в установленном порядке.
+Отдельные субвенции бюджетам субъектов Российской Федерации из федерального бюджета формируют единую субвенцию бюджетам субъектов Российской Федерации из федерального бюджета, перечень которых утвержден распоряжением Правительства Российской Федерации от 15 июля 2014 г. № 1309-р.
+К ним относятся субвенции на осуществление переданных органам государственной власти субъектов Российской Федерации полномочий:
+- в области организации, регулирования и охраны водных биологических ресурсов;
+- в области охраны и использования объектов животного мира (за исключением охотничьих ресурсов и водных биологических ресурсов);
+- на государственную регистрацию актов гражданского состояния;
+- по осуществлению деятельности, связанной с перевозкой между субъектами Российской Федерации, а также в пределах территорий государств - участников Содружества Независимых Государств несовершеннолетних, самовольно ушедших из семей, организаций для детей-сирот и детей, оставшихся без попечения родителей, образовательных организаций и иных организаций;
+- в отношении объектов культурного наследия;
+- в области охраны и использования охотничьих ресурсов;
+- в сфере охраны здоровья;
+- в сфере образования</t>
+  </si>
+  <si>
+    <t>http://government.ru/programs/232/events/; https://programs.gov.ru/Portal/programs/passport/35</t>
+  </si>
+  <si>
+    <t>Государственный долг субъектов Российской Федерации на первое января две тысячи семнадцатого года составлял два триллиона триста пятьдесят три миллиарда двести миллионов рублей и состоял на семьдесят четыре процента из бюджетных кредитов, на пятьдесят четыре процента – из ценных бумаг и коммерческих кредитов. Только четыре процента в структуре долга занимали гарантии и иные долговые обязательства</t>
+  </si>
+  <si>
+    <t>С 2012 по 2016 год государственный долг субъектов Российской Федерации вырос на 1001,8 млрд.руб. или на 74% и составил 2353,2 млрд.руб. 
+Государственный долг субъектов Российской Федерации в 2016 году состоял:
+на 42% из бюджетных кредитов, 
+на 34% из коммерческих кредитов, 
+на 20% из ценных бумаг,
+на 4% из гарантий и иных долговых обязательств.
+Структура государственного долга субъектов Российской Федерации в 2012 – 2016 годах представлена на рисунке</t>
+  </si>
+  <si>
+    <t>Общий объем средств федерального бюджета, предусмотренных на реализацию госпрограммы «Социально-экономическое развитие Калининградской области до две тысячи двадцатого года» в две тысячи тринадцатом две тысячи двадцатом годах составляет триста четыре миллиарда семьсот миллионов рублей (в том числе в две тысячи семнадцатом году – пятьдесят миллиардов триста миллионов рублей)</t>
+  </si>
+  <si>
+    <t>В каких формах предоставляются межбюджетные трансферты?</t>
+  </si>
+  <si>
+    <t>Что составляет налоговую базу бюджетов муниципальных образований?</t>
+  </si>
+  <si>
+    <t>Цель, создания, Резервный фонд, Правительства Российской Федерации, порядок использования</t>
+  </si>
+  <si>
+    <t>Резервный фонд Правительства Российской Федерации создается  в целях финансового обеспечения непредвиденных расходов. Бюджетные ассигнования резервного фонда Правительства Российской Федерации, предусмотренные в составе федерального бюджета, используются по решению Правительства Российской Федерации</t>
+  </si>
+  <si>
+    <t>В соответствии со статьей 81 Бюджетного кодекса Российской Федерации предусматривается создание резервного фонда Правительства Российской Федерации. Средства резервного фонда Правительства Российской Федерации направляются на финансовое обеспечение непредвиденных расходов.
+Бюджетные ассигнования резервного фонда Правительства Российской Федерации, предусмотренные в составе федерального бюджета, используются по решению Правительства Российской Федерации.
+Положение о порядке использования в 2017 году бюджетных ассигнований резервного фонда Правительства Российской Федерации, утверждено постановлением Правительства Российской Федерации от 27 февраля 2017 г. № 230</t>
+  </si>
+  <si>
+    <t>Для эффективного и ответственного управления региональными и муниципальными финансами проводится работа по уменьшению количества субсидий, предоставляемых субъектам Российской Федерации из федерального бюджета в результате их консолидации по принципу «одна государственная программа – одна субсидия». В случае невозможности соблюдения указанного принципа применяется подход «одна подпрограмма – одна субсидия»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Государственный долг субъектов Российской Федерации на первое января две тысячи семнадцатого года составлял два триллиона триста пятьдесят три миллиарда двести миллионов рублей и состоял на </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">сорок два </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>процента из бюджетных кредитов, на пятьдесят четыре процента – из ценных бумаг и коммерческих кредитов. Только четыре процента в структуре долга занимали гарантии и иные долговые обязательства</t>
+    </r>
+  </si>
+  <si>
+    <t>Консолидированный бюджет субъектов Российской Федерации в две тысячи шестнадцатом году исполнен по доходам на сто две целых пять десятых процента, по расходам на девяносто четыре целых, четыре десятых процента</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Налоговые доходы бюджетов субъектов Российской Федерации определены статьей 56 Бюджетного кодекса Российской Федерации. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
 К ним относятся:
 1) Доходы от региональных налогов:
 - налог на имущество организаций
@@ -421,122 +570,14 @@
 - сборы
 - государственная пошлина
 - упрощенная система налогообложения</t>
-  </si>
-  <si>
-    <t>Общий объем средств федерального бюджета, предусмотренных на реализацию госпрограммы «Социально-экономическое развитие Республики Крым и города Севастополя на период до две тысячи двадцатого года» в две тысячи пятнадцатом две тысячи двадцатом годах составляет семьсот тридцать восемь миллиардов сто миллионов рублей (в том числе в две тысячи семнадцатом году – сто шестьдесят четыре миллиарда восемьсот миллионов рублей)</t>
-  </si>
-  <si>
-    <t>Субъектам Российской Федерации предоставляются следующие межбюджетные трансферты: дотации на выравнивание бюджетной обеспеченности субъектов Российской Федерации; субсидии бюджетам субъектов Российской Федерации; субвенции бюджетам субъектов Российской Федерации;
-иные межбюджетные трансферты бюджетам субъектов Российской Федерации</t>
-  </si>
-  <si>
-    <t>Для каких целей создается Резервный фонд Правительства Российской Федерации?</t>
-  </si>
-  <si>
-    <t>Что включает в себя консолидированный бюджет субъекта Российской Федерации?</t>
-  </si>
-  <si>
-    <t>Включает, состоит, консолидированный бюджет субъекта, Российской Федерации, РФ</t>
-  </si>
-  <si>
-    <t>Консолидированный бюджет субъекта Российской Федерации включает бюджет субъекта Российской Федерации и свод бюджетов муниципальных образований, входящих в состав субъекта Российской Федерации (без учета межбюджетных трансфертов между этими бюджетами)</t>
-  </si>
-  <si>
-    <t>Бюджет субъекта Российской Федерации и свод бюджетов муниципальных образований, входящих в состав субъекта Российской Федерации (без учета межбюджетных трансфертов между этими бюджетами), образуют консолидированный бюджет субъекта Российской Федерации</t>
-  </si>
-  <si>
-    <t>Понятие межбюджетных трансфертов?</t>
-  </si>
-  <si>
-    <t>Межбюджетные трансферты, МБТ, понятие, определение, что это</t>
-  </si>
-  <si>
-    <t>Межбюджетные трансферты - средства, предоставляемые одним бюджетом бюджетной системы Российской Федерации другому бюджету бюджетной системы Российской Федерации</t>
-  </si>
-  <si>
-    <t>Как проводится работа по консолидации субсидий, предоставляемых бюджетам субъектов Российской Федерации из федерального бюджета?</t>
-  </si>
-  <si>
-    <t>В рамках государственной программы Российской Федерации «Развитие федеративных отношений и создание условий для эффективного и ответственного управления региональными и муниципальными финансами» стоит задача по уменьшению количества субсидий, предоставляемых субъектам Российской Федерации из федерального бюджета в результате их консолидации по принципу «одна государственная программа – одна субсидия». В случае невозможности соблюдения указанного принципа применяется подход «одна подпрограмма – одна субсидия».
-Стоит отметить, что процесс укрупнения субсидий происходит постепенно. В 2014 году были осуществлены первые шаги по укрупнению субсидий: предоставлялась субсидия на реализацию отдельных мероприятий государственной программы «Развитие здравоохранения».
-Осуществленные Минфином России меры по консолидации при подготовке федерального бюджета на 2017 год позволили существенно сократить количество субсидий: в Федеральном законе от 19.12.2016 № 415-ФЗ «О федеральном бюджете на 2017 год и на плановый период 2018 и 2019 годов» предусмотрено 65 субсидий, что на 30 субсидий или 31,6% меньше аналогичного показателя, предусмотренного Федеральным законом от 14.12.2016 № 359-ФЗ «О федеральном бюджете на 2016 год».
-Динамика предоставления субсидий бюджетам субъектов Российской Федерации из федерального бюджета в 2016-2019 годах показана на рисунке</t>
-  </si>
-  <si>
-    <t>Динамика предоставления субсидий бюджетам субъектов Российской Федерации из федерального бюджета в 2016-2019 годах</t>
-  </si>
-  <si>
-    <t>22.17.jpg</t>
-  </si>
-  <si>
-    <t>Проводится, работа, по консолидации, субсидий, предоставляемых, бюджетам субъектов, Российская Федерация, РФ, федеральный бюджет, ФБ</t>
-  </si>
-  <si>
-    <t>Что такое единая субвенция?</t>
-  </si>
-  <si>
-    <t>Единая субвенция, понятие, определение</t>
-  </si>
-  <si>
-    <t>Отдельные субвенции бюджетам субъектов Российской Федерации из федерального бюджета формируют единую субвенцию бюджетам субъектов Российской Федерации из федерального бюджета на осуществление переданных органам государственной власти субъектов полномочий, перечень которых утвержден распоряжением Правительства Российской Федерации</t>
-  </si>
-  <si>
-    <t>Субвенции бюджетам субъектов Российской Федерации из федерального бюджета – это межбюджетные трансферты, предоставляемые бюджетам субъектов Российской Федерации в целях финансового обеспечения расходных обязательств субъектов Российской Федерации и (или) муниципальных образований, возникающих при выполнении полномочий Российской Федерации, переданных для осуществления органам государственной власти субъектов Российской Федерации и (или) органам местного самоуправления в установленном порядке.
-Отдельные субвенции бюджетам субъектов Российской Федерации из федерального бюджета формируют единую субвенцию бюджетам субъектов Российской Федерации из федерального бюджета, перечень которых утвержден распоряжением Правительства Российской Федерации от 15 июля 2014 г. № 1309-р.
-К ним относятся субвенции на осуществление переданных органам государственной власти субъектов Российской Федерации полномочий:
-- в области организации, регулирования и охраны водных биологических ресурсов;
-- в области охраны и использования объектов животного мира (за исключением охотничьих ресурсов и водных биологических ресурсов);
-- на государственную регистрацию актов гражданского состояния;
-- по осуществлению деятельности, связанной с перевозкой между субъектами Российской Федерации, а также в пределах территорий государств - участников Содружества Независимых Государств несовершеннолетних, самовольно ушедших из семей, организаций для детей-сирот и детей, оставшихся без попечения родителей, образовательных организаций и иных организаций;
-- в отношении объектов культурного наследия;
-- в области охраны и использования охотничьих ресурсов;
-- в сфере охраны здоровья;
-- в сфере образования</t>
-  </si>
-  <si>
-    <t>http://government.ru/programs/232/events/; https://programs.gov.ru/Portal/programs/passport/35</t>
-  </si>
-  <si>
-    <t>Государственный долг субъектов Российской Федерации на первое января две тысячи семнадцатого года составлял два триллиона триста пятьдесят три миллиарда двести миллионов рублей и состоял на семьдесят четыре процента из бюджетных кредитов, на пятьдесят четыре процента – из ценных бумаг и коммерческих кредитов. Только четыре процента в структуре долга занимали гарантии и иные долговые обязательства</t>
-  </si>
-  <si>
-    <t>С 2012 по 2016 год государственный долг субъектов Российской Федерации вырос на 1001,8 млрд.руб. или на 74% и составил 2353,2 млрд.руб. 
-Государственный долг субъектов Российской Федерации в 2016 году состоял:
-на 42% из бюджетных кредитов, 
-на 34% из коммерческих кредитов, 
-на 20% из ценных бумаг,
-на 4% из гарантий и иных долговых обязательств.
-Структура государственного долга субъектов Российской Федерации в 2012 – 2016 годах представлена на рисунке</t>
-  </si>
-  <si>
-    <t>Общий объем средств федерального бюджета, предусмотренных на реализацию госпрограммы «Социально-экономическое развитие Калининградской области до две тысячи двадцатого года» в две тысячи тринадцатом две тысячи двадцатом годах составляет триста четыре миллиарда семьсот миллионов рублей (в том числе в две тысячи семнадцатом году – пятьдесят миллиардов триста миллионов рублей)</t>
-  </si>
-  <si>
-    <t>В каких формах предоставляются межбюджетные трансферты?</t>
-  </si>
-  <si>
-    <t>Что составляет налоговую базу бюджетов муниципальных образований?</t>
-  </si>
-  <si>
-    <t>Цель, создания, Резервный фонд, Правительства Российской Федерации, порядок использования</t>
-  </si>
-  <si>
-    <t>Резервный фонд Правительства Российской Федерации создается  в целях финансового обеспечения непредвиденных расходов. Бюджетные ассигнования резервного фонда Правительства Российской Федерации, предусмотренные в составе федерального бюджета, используются по решению Правительства Российской Федерации</t>
-  </si>
-  <si>
-    <t>В соответствии со статьей 81 Бюджетного кодекса Российской Федерации предусматривается создание резервного фонда Правительства Российской Федерации. Средства резервного фонда Правительства Российской Федерации направляются на финансовое обеспечение непредвиденных расходов.
-Бюджетные ассигнования резервного фонда Правительства Российской Федерации, предусмотренные в составе федерального бюджета, используются по решению Правительства Российской Федерации.
-Положение о порядке использования в 2017 году бюджетных ассигнований резервного фонда Правительства Российской Федерации, утверждено постановлением Правительства Российской Федерации от 27 февраля 2017 г. № 230</t>
-  </si>
-  <si>
-    <t>Для эффективного и ответственного управления региональными и муниципальными финансами проводится работа по уменьшению количества субсидий, предоставляемых субъектам Российской Федерации из федерального бюджета в результате их консолидации по принципу «одна государственная программа – одна субсидия». В случае невозможности соблюдения указанного принципа применяется подход «одна подпрограмма – одна субсидия»</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,6 +611,13 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -947,7 +995,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -958,10 +1006,10 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -1044,7 +1092,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="346.5">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="267.75">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -1052,43 +1100,43 @@
         <v>36</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F3" s="6"/>
       <c r="H3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="189">
+    </row>
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="173.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1" ht="78.75">
@@ -1096,16 +1144,16 @@
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" ht="94.5">
@@ -1113,161 +1161,161 @@
         <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="393.75">
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="299.25">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="I7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="393.75">
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="299.25">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="299.25">
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="236.25">
       <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="409.5">
+    </row>
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="330.75">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="409.5">
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="330.75">
       <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="G11" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="157.5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="141.75">
       <c r="A12" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" ht="236.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="5" customFormat="1" ht="285" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" ht="302.25" customHeight="1">
@@ -1275,16 +1323,16 @@
         <v>24</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="D14" s="13" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" ht="204.75">
@@ -1292,16 +1340,16 @@
         <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="5" customFormat="1" ht="110.25">
@@ -1309,16 +1357,16 @@
         <v>26</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="5" customFormat="1" ht="78.75">
@@ -1326,16 +1374,16 @@
         <v>27</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="5" customFormat="1" ht="409.5" customHeight="1">
@@ -1343,22 +1391,22 @@
         <v>28</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="5" customFormat="1" ht="409.5">
@@ -1366,16 +1414,16 @@
         <v>29</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="E19" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="5" customFormat="1">

--- a/data/minfin/22_questions.xlsx
+++ b/data/minfin/22_questions.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>question</t>
   </si>
@@ -120,16 +120,6 @@
     <t>Субъект, Российской Федерации, по итогам, 2016, дефицит, профицит, по результатам, исполнения, бюджета</t>
   </si>
   <si>
-    <t>В 2016 году дефицит консолидированных бюджетов субъектов Российской Федерации составил 12,5 млрд. рублей.
-С дефицитом были исполнены консолидированные бюджеты 56 субъектов Российской Федерации. 
-С профицитом были исполнены консолидированные бюджеты 29 субъектов Российской Федерации. 
-Фактический объем дефицита исполнен ниже первоначально утвержденного объема на 546,0 млрд. рублей или 97,8%.
-Динамика исполнения бюджетов субъектов Российской Федерации в 2015-2016 годах показана на рисунке</t>
-  </si>
-  <si>
-    <t>Результат исполнения бюджетов субъектов Российской Федерации в 2015-2016 гг</t>
-  </si>
-  <si>
     <t>22.1.jpg</t>
   </si>
   <si>
@@ -139,12 +129,6 @@
     <t>объем, государственный долг, субъектов, Российской Федерации, динамика</t>
   </si>
   <si>
-    <t>На 1 января 2017 года государственный долг субъектов Российской Федерации составляет 
-2353,2 млрд. рублей, увеличившись на 1,5% к уровню 1 января 2016 года, или 33,8% от объема налоговых и неналоговых доходов бюджетов субъектов Российской Федерации
-В 54 субъектах Российской Федерации государственный долг составляет более 50% от объема налоговых и неналоговых доходов (без учета бюджетных кредитов – в 15 регионах). При этом в Республике Мордовия, Республике Хакасия и Костромской области государственный долг составляет 176,0%, 145,5% и 143,3% соответственно от объема налоговых и неналоговых доходов субъектов Российской Федерации (без учета бюджетных кредитов – в Республике Хакасия, Костромской области и Республике Мордовия государственный долг составляет 127,3%, 85,6% и 77,0% соответственно).
-На рисунке показан темп роста государственного долга на 1 января 2017 года к 1 января 2016 года, выраженный в процентах</t>
-  </si>
-  <si>
     <t>Темп роста государственного долга на 1 января 2017 года к 1 января 2016 года</t>
   </si>
   <si>
@@ -157,9 +141,6 @@
     <t>Структура, государственный долг, субъектов, Российской Федерации</t>
   </si>
   <si>
-    <t>Структура государственного долга субъектов Российской Федерации в 2012-2016 годах</t>
-  </si>
-  <si>
     <t>22.3.jpg</t>
   </si>
   <si>
@@ -172,9 +153,6 @@
     <t>В две тысячи семнадцатом две тысячи девятнадцатом годах дотации на выравнивание бюджетной обеспеченности получат семьдесят два субъекта Российской Федерации</t>
   </si>
   <si>
-    <t>В 2015-2016 годах получателями дотаций на выравнивание бюджетной обеспеченности стали 71 субъект Российской Федерации, в 2017-2019 годах - 72 субъекта Российской Федерации</t>
-  </si>
-  <si>
     <t>Количество регионов, не получающих дотации на выравнивание бюджетной обеспеченности?</t>
   </si>
   <si>
@@ -184,20 +162,7 @@
     <t>В две тысячи семнадцатом две тысячи девятнадцатом годах дотации на выравнивание бюджетной обеспеченности не получат тринадцать субъектов Российской Федерации</t>
   </si>
   <si>
-    <t>В 2015-2016 годах не получали дотации на выравнивание бюджетной обеспеченности 14 субъектов Российской Федерации, в 2017-2019 годах - 13 субъектов Российской Федерации</t>
-  </si>
-  <si>
-    <t>Основные параметры исполнения консолидированных бюджетов субъектов Российской Федерации за 2016 год?</t>
-  </si>
-  <si>
     <t>Основные, параметры, исполнения, консолидированных, бюджетов, субъектов, Российской Федерации, 2016</t>
-  </si>
-  <si>
-    <t>В 2016 году доходы консолидированного бюджета субъектов РФ составили 9923,8 млрд. руб., что на 6,6% выше, чем в 2015 году. 
-Максимальное увеличение доходов консолидированных бюджетов субъектов в 2016 году произошло в Калининградской области (+44,5%), Ульяновской области (+21,8%), Республике Крым (+21,7%), максимальное снижение доходов произошло в Сахалинской области (-30,3%), Ненецком автономном округе (-21.4%), Ханты-Мансийском автономном округе (-21,4%). 
-В 2016 году расходы консолидированного бюджета субъектов РФ составили 9936,4 млрд. руб., что на 2,8% выше, чем в 2015 году.
-Расходы консолидированных бюджетов субъектов максимально выросли в Севастополе (+37,8%), Республике Крым (+31,1%), Калининградской области (+25,9%), максимально снизились расходы в Сахалинской области (-25%), Ненецком автономном округе (-13,2%), Республике Марий Эл (-7,3%).
-На рисунках представлен анализ исполнения консолидированных бюджетов субъектов Российской Федерации в 2016 году, а именно рассматриваются темпы роста по показателям доходы, расходы в целом, так и по отдельным доходным источникам и направлениям расходов субъектов</t>
   </si>
   <si>
     <t>Темп роста доходов в 2016 году; Темп роста налоговых и налоговых доходов в 2016 году; Темп роста налога на прибыль в 2016 году; Темп роста налога на доходы физических лиц в 2016 году; Темп роста акцизов по подакцизным товарам в 2016 году; Темп роста налога на имущество организаций в 2016 году; Темп роста расходов в 2016 году; Доля расходов на оплату труда и начислений на оплату труда в расходах в 2016 году; Доля капитальных вложений в расходах в 2016 году</t>
@@ -213,21 +178,10 @@
     <t>Расходы, госпрограмма, Социально-экономическое развитие Калининградской области, до 2020 года</t>
   </si>
   <si>
-    <t xml:space="preserve">Общий объем средств федерального бюджета, предусмотренных на реализацию госпрограммы «Социально-экономическое развитие Калининградской области до 2020 года» в 2013 - 2020 годах составляет 304,7 млрд. рублей (в том числе в 2017 году - 50,3 млрд. рублей).
-Инструментами реализации госпрограммы являются: 
-- ФЦП развития Калининградской области на период до 2020 года (инфраструктурное обеспечение спортивных объектов, возводимых к Чемпионату мира по футболу в 2018 году, мероприятия по развитию образования и здравоохранения, осуществление выездных экскурсий для молодежи, создание новых конкурентоспособных отраслей экономики);
-- подпрограмма «Создание условий для устойчивого социально-экономического развития Калининградской области» (предоставление иных межбюджетных трансфертов на обеспечение поддержки юридических лиц, осуществляющих деятельность на территории Калининградской области, и резидентов особой экономической зоны в Калининградской области)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Расходы на госпрограмму «Социально-экономическое развитие Республики Крым и г. Севастополя на период до 2020 года» </t>
   </si>
   <si>
     <t>Расходы, госпрограмма, государственная программа, Социально-экономическое развитие, Республики Крым, Севастополя, на период, до 2020 года</t>
-  </si>
-  <si>
-    <t>Общий объем средств федерального бюджета, предусмотренных на реализацию госпрограммы «Социально-экономическое развитие Республики Крым и г. Севастополя на период до 2020 года» в 2015-2020 годах составляет 738,1 млрд. рублей (в том числе в 2017 году - 164,8 млрд. рублей).
-Инструментом реализации госпрограммы является федеральная целевая программа «Социально-экономическое развитие Республики Крым и г. Севастополя до 2020 года», в рамках которой предусмотрена реализация мероприятий, направленных на развитие транспортного и энергетического комплексов, развитие инженерной инфраструктуры и водообеспечения, комплекса связи и массовых коммуникаций, развитие социальной сферы (здравоохранение, образование, культура), формирование туристско-рекреационных кластеров и промышленного комплекса, а также обеспечение межнационального единства</t>
   </si>
   <si>
     <t>Государственная программа «Социально-экономическое развитие Республики Крым и г. Севастополя на период до 2020 года»</t>
@@ -331,15 +285,6 @@
     </r>
   </si>
   <si>
-    <t>Общий объем средств федерального бюджета, предусмотренных на реализацию госпрограммы «Развитие Северо-Кавказского федерального округа» на период до 2025 года» в 2013-2025 годах составляет 311,9 млрд. рублей (в том числе в 2017 году – 13,9 млрд. рублей).
-Инструментами реализации госпрограммы являются:
-• подпрограммы регионального развития субъектов Российской Федерации, входящих в состав Северо-Кавказского федерального округа (7 подпрограмм);
-• подпрограмма «Развитие туристического кластера в Северо-Кавказском федеральном округе, Краснодарском крае и Республике Адыгея» (взнос в уставный капитал АО «ОЭЗ» (для ОАО «КСК») и субсидирование процентных ставок по кредитам резидентов ОЭЗ);
-• подпрограмма «Обеспечение реализации государственной программы Российской Федерации «Развитие Северо-Кавказского федерального округа» на период до 2025 года» (текущее содержание Минкавказа России);
-• подпрограмма «Формирование инфраструктуры государственной информационной политики в Северо-Кавказском федеральном округе» (ТАСС-Кавказ);
-• подпрограмма «Создание медицинского кластера на территории Кавказских Минеральных Вод и реализация инвестиционных проектов Северо-Кавказского федерального округа» (увеличение уставного капитала АО «КРСК»)</t>
-  </si>
-  <si>
     <t>Государственная программа «Развитие Северо-Кавказского федерального округа» на период до 2025 года на официальном портале госпрограмм РФ; Государственная программа «Развитие Северо-Кавказского федерального округа» на период до 2025 года на официальном сайте Правительства России</t>
   </si>
   <si>
@@ -353,13 +298,6 @@
   </si>
   <si>
     <t>Общий объем средств федерального бюджета, предусмотренных на реализацию госпрограммы «Социально-экономическое развитие Дальнего Востока и Байкальского региона» в две тысячи четырнадцатом две тысячи двадцать пятом годах составляет четыреста двадцать два миллиарда шестьсот миллионов рублей (в том числе в две тысячи семнадцатом году – семнадцать миллиардов девятьсот миллионов рублей)</t>
-  </si>
-  <si>
-    <t>Общий объем средств федерального бюджета, предусмотренных на реализацию госпрограммы «Социально-экономическое развитие Дальнего Востока и Байкальского региона» в 2014-2025 годах составляет 422,6 млрд. рублей (в том числе в 2017 году – 17,9 млрд. рублей).
-Инструментами реализации госпрограммы в 2017 году являются:
-1) ФЦП «Социально-экономическое развитие Курильских островов (Сахалинская область) на 2016 - 2025 годы», в рамках которой предусмотрена реализация мероприятий  по созданию системы комплексной безопасности и защиты от рисков чрезвычайных ситуаций, а также по обеспечению функционирования сетей связи Курильских островов в единой сети электросвязи Российской Федерации;
-2) Подпрограмма «Создание условий для опережающего социально-экономического развития Дальневосточного федерального округа», нацеленная на создание территорий опережающего социально-экономического развития в субъектах Дальневосточного федерального округа;
-3) Подпрограмма «Поддержка реализации инвестиционных проектов в Дальневосточном федеральном округе», нацеленная на реализацию инвестиционных проектов в Дальневосточном федеральном округе</t>
   </si>
   <si>
     <t>Государственная программа «Социально-экономическое развитие Дальнего Востока и Байкальского региона» на официальном сайте Правительства России; Государственная программа «Социально-экономическое развитие Дальнего Востока и Байкальского региона» на официальном портале госпрограмм РФ</t>
@@ -381,17 +319,6 @@
     <t>К налоговым доходам бюджетов муниципальных образований относятся: налог на доходы физических лиц, налог на имущество физических лиц, земельный налог, единый налог на вмененный доход, единый сельскохозяйственный налог, государственная пошлина, налог, взимаемый с применением патентной системы налогообложения, акцизы</t>
   </si>
   <si>
-    <t>Налоговые доходы бюджетов муниципальных образований:
-- налог на доходы физических лиц
-- налог на имущество физических лиц
-- земельный налог
-- единый налог на вмененный доход
-- единый сельскохозяйственный налог
-- государственная пошлина
-- налог, взимаемый с применением патентной системы налогообложения
-- акцизы на автомобильный и прямогонный бензин, дизельное топливо, моторные масла для дизельных и (или) карбюраторных (инжекторных) двигателей, производимые на территории Российской Федерации</t>
-  </si>
-  <si>
     <t>Что составляет налоговую базу бюджетов субъектов Российской Федерации?</t>
   </si>
   <si>
@@ -421,9 +348,6 @@
   </si>
   <si>
     <t>Бюджет субъекта Российской Федерации и свод бюджетов муниципальных образований, входящих в состав субъекта Российской Федерации (без учета межбюджетных трансфертов между этими бюджетами), образуют консолидированный бюджет субъекта Российской Федерации</t>
-  </si>
-  <si>
-    <t>Понятие межбюджетных трансфертов?</t>
   </si>
   <si>
     <t>Межбюджетные трансферты, МБТ, понятие, определение, что это</t>
@@ -476,15 +400,6 @@
   </si>
   <si>
     <t>Государственный долг субъектов Российской Федерации на первое января две тысячи семнадцатого года составлял два триллиона триста пятьдесят три миллиарда двести миллионов рублей и состоял на семьдесят четыре процента из бюджетных кредитов, на пятьдесят четыре процента – из ценных бумаг и коммерческих кредитов. Только четыре процента в структуре долга занимали гарантии и иные долговые обязательства</t>
-  </si>
-  <si>
-    <t>С 2012 по 2016 год государственный долг субъектов Российской Федерации вырос на 1001,8 млрд.руб. или на 74% и составил 2353,2 млрд.руб. 
-Государственный долг субъектов Российской Федерации в 2016 году состоял:
-на 42% из бюджетных кредитов, 
-на 34% из коммерческих кредитов, 
-на 20% из ценных бумаг,
-на 4% из гарантий и иных долговых обязательств.
-Структура государственного долга субъектов Российской Федерации в 2012 – 2016 годах представлена на рисунке</t>
   </si>
   <si>
     <t>Общий объем средств федерального бюджета, предусмотренных на реализацию госпрограммы «Социально-экономическое развитие Калининградской области до две тысячи двадцатого года» в две тысячи тринадцатом две тысячи двадцатом годах составляет триста четыре миллиарда семьсот миллионов рублей (в том числе в две тысячи семнадцатом году – пятьдесят миллиардов триста миллионов рублей)</t>
@@ -538,6 +453,73 @@
     <t>Консолидированный бюджет субъектов Российской Федерации в две тысячи шестнадцатом году исполнен по доходам на сто две целых пять десятых процента, по расходам на девяносто четыре целых, четыре десятых процента</t>
   </si>
   <si>
+    <t>На 1 января 2017 года государственный долг субъектов Российской Федерации составляет 2353,2 млрд. рублей, увеличившись на 1,5% к уровню 1 января 2016 года, или 33,8% от объема налоговых и неналоговых доходов бюджетов субъектов Российской Федерации.
+В 54 субъектах Российской Федерации государственный долг составляет более 50% от объема налоговых и неналоговых доходов (без учета бюджетных кредитов – в 15 регионах). При этом в Республике Мордовия, Республике Хакасия и Костромской области государственный долг составляет 176,0%, 145,5% и 143,3% соответственно от объема налоговых и неналоговых доходов субъектов Российской Федерации (без учета бюджетных кредитов – в Республике Хакасия, Костромской области и Республике Мордовия государственный долг составляет 127,3%, 85,6% и 77,0% соответственно).
+На рисунке показан темп роста государственного долга на 1 января 2017 года к 1 января 2016 года, выраженный в процентах</t>
+  </si>
+  <si>
+    <t>С 2012 по 2016 год государственный долг субъектов Российской Федерации вырос на 1001,8 млрд. руб. или на 74% и составил 2353,2 млрд. руб. 
+Государственный долг субъектов Российской Федерации в 2016 году состоял:
+на 42% из бюджетных кредитов, 
+на 34% из коммерческих кредитов, 
+на 20% из ценных бумаг,
+на 4% из гарантий и иных долговых обязательств.
+Структура государственного долга субъектов Российской Федерации в 2012–2016 годах представлена на рисунке</t>
+  </si>
+  <si>
+    <t>Структура государственного долга субъектов Российской Федерации в 2012–2016 годах</t>
+  </si>
+  <si>
+    <t>Основные параметры исполнения консолидированных бюджетов субъектов Российской Федерации за 2016 год</t>
+  </si>
+  <si>
+    <t>В 2016 году доходы консолидированного бюджета субъектов РФ составили 9923,8 млрд. руб., что на 6,6% выше, чем в 2015 году. 
+Максимальное увеличение доходов консолидированных бюджетов субъектов в 2016 году произошло в Калининградской области (+44,5%), Ульяновской области (+21,8%), Республике Крым (+21,7%), максимальное снижение доходов произошло в Сахалинской области (-30,3%), Ненецком автономном округе (-21.4%), Ханты-Мансийском автономном округе (-21,4%). 
+В 2016 году расходы консолидированного бюджета субъектов РФ составили 9936,4 млрд. руб., что на 2,8% выше, чем в 2015 году.
+Расходы консолидированных бюджетов субъектов максимально выросли в Севастополе (+37,8%), Республике Крым (+31,1%), Калининградской области (+25,9%), максимально снизились расходы в Сахалинской области (-25%), Ненецком автономном округе (-13,2%), Республике Марий Эл (-7,3%).
+На рисунках представлен анализ исполнения консолидированных бюджетов субъектов Российской Федерации в 2016 году, а именно рассматриваются темпы роста по показателям доходы, расходы как в целом, так и по отдельным доходным источникам и направлениям расходов субъектов</t>
+  </si>
+  <si>
+    <t>Общий объем средств федерального бюджета, предусмотренных на реализацию госпрограммы «Развитие Северо-Кавказского федерального округа» на период до 2025 года» в 2013–2025 годах составляет 311,9 млрд. рублей (в том числе в 2017 году – 13,9 млрд. рублей).
+Инструментами реализации госпрограммы являются:
+• подпрограммы регионального развития субъектов Российской Федерации, входящих в состав Северо-Кавказского федерального округа (7 подпрограмм);
+• подпрограмма «Развитие туристического кластера в Северо-Кавказском федеральном округе, Краснодарском крае и Республике Адыгея» (взнос в уставный капитал АО «ОЭЗ» (для ОАО «КСК») и субсидирование процентных ставок по кредитам резидентов ОЭЗ);
+• подпрограмма «Обеспечение реализации государственной программы Российской Федерации «Развитие Северо-Кавказского федерального округа» на период до 2025 года» (текущее содержание Минкавказа России);
+• подпрограмма «Формирование инфраструктуры государственной информационной политики в Северо-Кавказском федеральном округе» (ТАСС-Кавказ);
+• подпрограмма «Создание медицинского кластера на территории Кавказских Минеральных Вод и реализация инвестиционных проектов Северо-Кавказского федерального округа» (увеличение уставного капитала АО «КРСК»)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общий объем средств федерального бюджета, предусмотренных на реализацию госпрограммы «Социально-экономическое развитие Калининградской области до 2020 года» в 2013–2020 годах составляет 304,7 млрд. рублей (в том числе в 2017 году – 50,3 млрд. рублей).
+Инструментами реализации госпрограммы являются: 
+- ФЦП развития Калининградской области на период до 2020 года (инфраструктурное обеспечение спортивных объектов, возводимых к Чемпионату мира по футболу в 2018 году, мероприятия по развитию образования и здравоохранения, осуществление выездных экскурсий для молодежи, создание новых конкурентоспособных отраслей экономики);
+- подпрограмма «Создание условий для устойчивого социально-экономического развития Калининградской области» (предоставление иных межбюджетных трансфертов на обеспечение поддержки юридических лиц, осуществляющих деятельность на территории Калининградской области, и резидентов особой экономической зоны в Калининградской области)
+</t>
+  </si>
+  <si>
+    <t>В 2015–2016 годах получателями дотаций на выравнивание бюджетной обеспеченности стали 71 субъект Российской Федерации, в 2017–2019 годах – 72 субъекта Российской Федерации</t>
+  </si>
+  <si>
+    <t>В 2016 году дефицит консолидированных бюджетов субъектов Российской Федерации составил 12,5 млрд. рублей.
+С дефицитом были исполнены консолидированные бюджеты 56 субъектов Российской Федерации. 
+С профицитом были исполнены консолидированные бюджеты 29 субъектов Российской Федерации. 
+Фактический объем дефицита исполнен ниже первоначально утвержденного объема на 546,0 млрд. рублей или 97,8%.
+Динамика исполнения бюджетов субъектов Российской Федерации в 2015–2016 годах показана на рисунке</t>
+  </si>
+  <si>
+    <t>Результат исполнения бюджетов субъектов Российской Федерации в 2015–2016 гг</t>
+  </si>
+  <si>
+    <t>Налоговые доходы бюджетов муниципальных образований:
+- налог на доходы физических лиц;
+- налог на имущество физических лиц;
+- земельный налог;
+- единый налог на вмененный доход;
+- единый сельскохозяйственный налог;
+- государственная пошлина;
+- налог, взимаемый с применением патентной системы налогообложения;
+- акцизы на автомобильный и прямогонный бензин, дизельное топливо, моторные масла для дизельных и (или) карбюраторных (инжекторных) двигателей, производимые на территории Российской Федерации</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -559,25 +541,45 @@
       <t xml:space="preserve">
 К ним относятся:
 1) Доходы от региональных налогов:
-- налог на имущество организаций
-- налог на игорный бизнес
-- транспортный налог 
+- налог на имущество организаций;
+- налог на игорный бизнес;
+- транспортный налог
 2) Доходы от федеральных налогов и сборов:
-- налог на прибыль организаций
-- налог на доходы физических лиц
-- налог на добычу полезных ископаемых
-- акцизы по подакцизным товарам (продукции), производимым на территории Российской Федерации (бензин, дизельное топливо, пиво, вино, крепкая алкогольная продукция)
-- сборы
-- государственная пошлина
+- налог на прибыль организаций;
+- налог на доходы физических лиц;
+- налог на добычу полезных ископаемых;
+- акцизы по подакцизным товарам (продукции), производимым на территории Российской Федерации (бензин, дизельное топливо, пиво, вино, крепкая алкогольная продукция);
+- сборы;
+- государственная пошлина;
 - упрощенная система налогообложения</t>
     </r>
+  </si>
+  <si>
+    <t>Понятие межбюджетных трансфертов</t>
+  </si>
+  <si>
+    <t>Межбюджетные трансферты – средства, предоставляемые одним бюджетом бюджетной системы Российской Федерации другому бюджету бюджетной системы Российской Федерации</t>
+  </si>
+  <si>
+    <t>В 2015–2016 годах не получали дотации на выравнивание бюджетной обеспеченности 14 субъектов Российской Федерации, в 2017–2019 годах – 13 субъектов Российской Федерации</t>
+  </si>
+  <si>
+    <t>Общий объем средств федерального бюджета, предусмотренных на реализацию госпрограммы «Социально-экономическое развитие Республики Крым и г. Севастополя на период до 2020 года» в 2015–2020 годах составляет 738,1 млрд. рублей (в том числе в 2017 году – 164,8 млрд. рублей).
+Инструментом реализации госпрограммы является федеральная целевая программа «Социально-экономическое развитие Республики Крым и г. Севастополя до 2020 года», в рамках которой предусмотрена реализация мероприятий, направленных на развитие транспортного и энергетического комплексов, развитие инженерной инфраструктуры и водообеспечения, комплекса связи и массовых коммуникаций, развитие социальной сферы (здравоохранение, образование, культура), формирование туристско-рекреационных кластеров и промышленного комплекса, а также обеспечение межнационального единства</t>
+  </si>
+  <si>
+    <t>Общий объем средств федерального бюджета, предусмотренных на реализацию госпрограммы «Социально-экономическое развитие Дальнего Востока и Байкальского региона» в 2014–2025 годах составляет 422,6 млрд. рублей (в том числе в 2017 году – 17,9 млрд. рублей).
+Инструментами реализации госпрограммы в 2017 году являются:
+1) ФЦП «Социально-экономическое развитие Курильских островов (Сахалинская область) на 2016–2025 годы», в рамках которой предусмотрена реализация мероприятий  по созданию системы комплексной безопасности и защиты от рисков чрезвычайных ситуаций, а также по обеспечению функционирования сетей связи Курильских островов в единой сети электросвязи Российской Федерации;
+2) Подпрограмма «Создание условий для опережающего социально-экономического развития Дальневосточного федерального округа», нацеленная на создание территорий опережающего социально-экономического развития в субъектах Дальневосточного федерального округа;
+3) Подпрограмма «Поддержка реализации инвестиционных проектов в Дальневосточном федеральном округе», нацеленная на реализацию инвестиционных проектов в Дальневосточном федеральном округе</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -995,24 +997,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" style="2" customWidth="1"/>
@@ -1030,7 +1032,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1068,7 +1070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="251.25" customHeight="1">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="251.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
@@ -1079,389 +1081,389 @@
         <v>31</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="6"/>
       <c r="H2" s="5" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="267.75">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F3" s="6"/>
       <c r="H3" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="173.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="78.75">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="94.5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="299.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="315" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="299.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="236.25">
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="330.75">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="378" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="330.75">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="346.5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="141.75">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" ht="285" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="5" customFormat="1" ht="285" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" ht="302.25" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="5" customFormat="1" ht="302.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" ht="204.75">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="5" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" ht="110.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" ht="78.75">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="5" customFormat="1" ht="409.5" customHeight="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="5" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="5" customFormat="1" ht="409.5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="5" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="5" customFormat="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:9" s="5" customFormat="1">
+    <row r="21" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:9" s="5" customFormat="1">
+    <row r="22" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:9" s="5" customFormat="1">
+    <row r="23" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:9" s="5" customFormat="1">
+    <row r="24" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:9" s="5" customFormat="1">
+    <row r="25" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:9" s="5" customFormat="1">
+    <row r="26" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:9" s="5" customFormat="1">
+    <row r="27" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:9" s="5" customFormat="1">
+    <row r="28" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:9" s="5" customFormat="1">
+    <row r="29" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:9" s="5" customFormat="1">
+    <row r="30" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:9" s="5" customFormat="1">
+    <row r="31" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
     </row>
   </sheetData>
